--- a/Data/ACCIDENTS.xlsx
+++ b/Data/ACCIDENTS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ACCIDENTS" sheetId="1" r:id="rId1"/>
@@ -5354,6 +5354,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
